--- a/OYM/_DocumentosComunes/_Algoritmos.xlsx
+++ b/OYM/_DocumentosComunes/_Algoritmos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARRLLOPERSONAL\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_kOneDrive\_DESARROLLO\_DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3596F71F-352B-49C8-990B-538FE0FFE465}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -278,7 +279,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,12 +331,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -350,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -369,6 +376,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,14 +661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -1286,37 +1299,37 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+    <row r="23" spans="1:10" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
         <v>20</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="11">
         <v>10</v>
       </c>
-      <c r="E23" s="3">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="E23" s="11">
+        <v>9</v>
+      </c>
+      <c r="F23" s="11">
         <v>20</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="11">
         <v>41</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="11">
         <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="I23" s="5" t="str">
+        <v>80</v>
+      </c>
+      <c r="I23" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>C</v>
-      </c>
-      <c r="J23" s="3"/>
+        <v>B</v>
+      </c>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
@@ -5816,7 +5829,7 @@
       <c r="J384" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3"/>
+  <autoFilter ref="A3:I3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
